--- a/Mô hình quan niệm.xlsx
+++ b/Mô hình quan niệm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\JAVA16\3.Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6967BD9-935F-48EB-AF45-E8BD740E8A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC272B9-95AD-42A8-B44E-467767C135C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
-  <si>
-    <t>Sân</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Khách hàng</t>
   </si>
   <si>
-    <t>Đơn hàng</t>
-  </si>
-  <si>
-    <t>Tình trạng sân</t>
-  </si>
-  <si>
     <t>Loại sân</t>
   </si>
   <si>
@@ -63,21 +54,12 @@
     <t>Còn</t>
   </si>
   <si>
-    <t>5 người</t>
-  </si>
-  <si>
     <t>Sáng</t>
   </si>
   <si>
-    <t>Ngày</t>
-  </si>
-  <si>
     <t>Mã nv</t>
   </si>
   <si>
-    <t>Mã hoá đơn</t>
-  </si>
-  <si>
     <t>Chuyển khoản</t>
   </si>
   <si>
@@ -90,9 +72,6 @@
     <t>Hết</t>
   </si>
   <si>
-    <t>7 người</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiều </t>
   </si>
   <si>
@@ -114,19 +93,13 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Ngày in</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Số tiền thanh toán</t>
-  </si>
-  <si>
     <t>Ngày đặt sân</t>
   </si>
   <si>
-    <t>Chức vụ</t>
+    <t xml:space="preserve">Tình trạng </t>
   </si>
 </sst>
 </file>
@@ -447,194 +420,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
